--- a/SprintBacklogGroep5.xlsx
+++ b/SprintBacklogGroep5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -285,9 +285,6 @@
     <t>1. Make a function which lets the player change the position of their boats.                                                    2. Make it so that the attack range and stats change when the position changes</t>
   </si>
   <si>
-    <t xml:space="preserve">1. The card must be a normal card.                                         2. The card must be given at the start of every turn.                                                                          3. The amount of cards given must be 1.                 </t>
-  </si>
-  <si>
     <t>1. After players change the position they cant move.                                                                      2. You can only switch to attack and defense position                                                                           3. Players can switch positions without errors.</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
   </si>
   <si>
     <t>1. Ships can only attack once.                                                                         2. Ships must be destroyed if it reaches 0 hitpoints.                                                                                                                           3. Each ship must have the correct attack range.                                                                    4. Each ship must have the correct move range.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. All cards must have correct spelling                                       2. There can only be a certain amount of cards.                                                                   3. A player can only have 6 cards                      </t>
   </si>
   <si>
     <t xml:space="preserve">1. All cards must influence the game without failure.                                                                                           2. A player can only use 2 cards per turn.                                                                                                           </t>
@@ -325,9 +319,6 @@
   </si>
   <si>
     <t>1. Write a code that shows the current turn in the game-play screen.</t>
-  </si>
-  <si>
-    <t>1. termination screen is showing when quit button is pressed.                                                                            2. The spelling is correct                                                                                                                                                     3. There are 2 buttons .                                                                                                    4. Buttons work without errors.</t>
   </si>
   <si>
     <t>show instructions that help the player during his turn</t>
@@ -408,10 +399,19 @@
     <t xml:space="preserve">As a user I want to place my ships on the tile I want, so that I can make my own strategy </t>
   </si>
   <si>
-    <t>1. The cards can only be recieved at the start of a game.                                                                                                                 2. The cards must be random generated.                                                                          3. Players can only receive 2 cards.</t>
+    <t>As a user I want to receive cards, so that I can use it in the game.</t>
   </si>
   <si>
-    <t>As a user I want to receive cards, so that I can use it in the game.</t>
+    <t>1. termination screen is shown when quit button is pressed.                                                                            2. The spelling is correct                                                                                                                                                     3. There are 2 buttons .                                                                                                    4. Buttons work without errors.</t>
+  </si>
+  <si>
+    <t>1. The cards can only be received at the start of a game.                                                                                                                 2. The cards must be random generated.                                                                          3. Players can only receive 2 cards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. All cards must have correct spelling                                       2. There can only be a certain amount of cards.                                                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The card must be a normal card.                                         2. The card must be given at the start of every turn.                                                                          3. The amount of cards given must be 1            4. A player can only have 6 cards                 </t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1291,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -1405,7 +1405,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1443,7 +1443,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" t="s">
         <v>25</v>
@@ -1481,7 +1481,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -1747,7 +1747,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
@@ -1861,7 +1861,7 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -2013,7 +2013,7 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -31595,7 +31595,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>23</v>
@@ -31607,7 +31607,7 @@
         <v>67</v>
       </c>
       <c r="F3" s="31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.2">
@@ -31624,10 +31624,10 @@
         <v>13</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -31644,10 +31644,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31773,8 +31773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -31821,7 +31821,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>23</v>
@@ -31830,10 +31830,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -31841,7 +31841,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>23</v>
@@ -31850,10 +31850,10 @@
         <v>20</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -31861,7 +31861,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>23</v>
@@ -31873,7 +31873,7 @@
         <v>79</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -31901,7 +31901,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>23</v>
@@ -31910,10 +31910,10 @@
         <v>5</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -31921,7 +31921,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C8" s="46" t="s">
         <v>23</v>
@@ -31930,10 +31930,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
@@ -31941,7 +31941,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C9" s="45" t="s">
         <v>23</v>
@@ -31961,7 +31961,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C10" s="45" t="s">
         <v>23</v>
@@ -31973,7 +31973,7 @@
         <v>68</v>
       </c>
       <c r="F10" s="44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="84" customHeight="1" x14ac:dyDescent="0.2">
@@ -31993,15 +31993,15 @@
         <v>82</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <v>12</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>23</v>
@@ -32013,7 +32013,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>83</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="89.25" x14ac:dyDescent="0.2">
@@ -32021,7 +32021,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="45" t="s">
         <v>23</v>
@@ -32030,10 +32030,10 @@
         <v>20</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.2">
@@ -32053,7 +32053,7 @@
         <v>73</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -32073,7 +32073,7 @@
         <v>76</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -32081,7 +32081,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C16" s="45" t="s">
         <v>23</v>
@@ -32090,10 +32090,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
@@ -32101,7 +32101,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C17" s="45" t="s">
         <v>23</v>
@@ -32110,10 +32110,10 @@
         <v>8</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F17" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">

--- a/SprintBacklogGroep5.xlsx
+++ b/SprintBacklogGroep5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5670" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t xml:space="preserve">1. The card must be a normal card.                                         2. The card must be given at the start of every turn.                                                                          3. The amount of cards given must be 1            4. A player can only have 6 cards                 </t>
+  </si>
+  <si>
+    <t>to do</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -1077,11 +1086,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1185,9 +1194,15 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="E3" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -1223,9 +1238,15 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="E4" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -1262,8 +1283,12 @@
         <v>23</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1300,7 +1325,9 @@
         <v>23</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1338,8 +1365,12 @@
         <v>23</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="F7" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1375,9 +1406,15 @@
       <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1414,7 +1451,9 @@
         <v>23</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1452,8 +1491,12 @@
         <v>23</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1490,7 +1533,9 @@
         <v>23</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1528,7 +1573,9 @@
         <v>23</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -1566,7 +1613,9 @@
         <v>23</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="2"/>
+      <c r="F13" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1604,7 +1653,9 @@
         <v>23</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="2"/>
+      <c r="F14" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1642,7 +1693,9 @@
         <v>23</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1680,7 +1733,9 @@
         <v>40</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="2"/>
+      <c r="F16" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1718,7 +1773,9 @@
         <v>40</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="2"/>
+      <c r="F17" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1756,7 +1813,9 @@
         <v>40</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="2"/>
+      <c r="F18" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1794,7 +1853,9 @@
         <v>40</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="2"/>
+      <c r="F19" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -1832,7 +1893,9 @@
         <v>40</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="F20" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
@@ -1871,7 +1934,9 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1909,7 +1974,9 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1947,7 +2014,9 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
+      <c r="G23" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1985,7 +2054,9 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="G24" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2023,7 +2094,9 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+      <c r="G25" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2061,7 +2134,9 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2099,7 +2174,9 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
+      <c r="G27" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2137,7 +2214,9 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
+      <c r="G28" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2175,7 +2254,9 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="G29" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -2213,7 +2294,9 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+      <c r="G30" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2251,7 +2334,9 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
+      <c r="G31" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2289,7 +2374,9 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+      <c r="G32" s="18" t="s">
+        <v>127</v>
+      </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -31773,8 +31860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
